--- a/eval/tasks/e-001/input.xlsx
+++ b/eval/tasks/e-001/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Code\ib-bench\eval\input-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Code\ib-bench\eval\tasks\e-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8690941B-4EB9-484B-ABE7-3E50FE32A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F67983B-8188-4F23-84B7-02C1ECE76469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="14431" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LBO" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">LBO!$A$1:$P$216</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">LBO!$A$1:$Q$216</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable" iterate="1"/>
   <extLst>
@@ -656,7 +656,7 @@
     <numFmt numFmtId="178" formatCode="&quot;FY&quot;#"/>
     <numFmt numFmtId="179" formatCode="#,##0.000_);\(#,##0.000\);0.000_);@_)"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -876,6 +876,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1371,7 +1379,7 @@
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="25" fillId="34" borderId="1" xfId="50"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1451,6 +1459,7 @@
     <xf numFmtId="168" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="28" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="25" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" hidden="1"/>
@@ -1817,29 +1826,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A106" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" customWidth="1"/>
-    <col min="12" max="12" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
@@ -1847,12 +1858,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1874,7 +1885,7 @@
         <v>2647.9230096330002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -1889,7 +1900,7 @@
         <v>-153.232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>272.59699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -1931,7 +1942,7 @@
         <v>2767.288009633</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>89</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>1864.1790000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1987,7 +1998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -2027,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -2064,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
@@ -2092,7 +2103,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
@@ -2101,7 +2112,7 @@
         <v>89.37074423405825</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>92</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>264.06599999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>44</v>
       </c>
@@ -2137,7 +2148,7 @@
         <v>-81.272999999999868</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
@@ -2155,7 +2166,7 @@
         <v>-65.227999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -2177,7 +2188,7 @@
         <v>248.02100000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>66</v>
       </c>
@@ -2192,7 +2203,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -2207,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>67</v>
       </c>
@@ -2222,7 +2233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>90</v>
       </c>
@@ -2238,7 +2249,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>91</v>
       </c>
@@ -2253,7 +2264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
         <v>92</v>
       </c>
@@ -2263,10 +2274,10 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2312,11 +2323,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F27" s="11"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>123</v>
       </c>
@@ -2355,7 +2366,7 @@
       </c>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>130</v>
       </c>
@@ -2395,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>124</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>125</v>
       </c>
@@ -2482,7 +2493,7 @@
         <v>4.5065944055944058</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>129</v>
       </c>
@@ -2524,7 +2535,7 @@
       </c>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>128</v>
       </c>
@@ -2566,7 +2577,7 @@
       </c>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>127</v>
       </c>
@@ -2603,7 +2614,7 @@
       </c>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>132</v>
       </c>
@@ -2642,7 +2653,7 @@
       </c>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>136</v>
       </c>
@@ -2680,7 +2691,7 @@
         <v>1.6155123785202674E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>131</v>
       </c>
@@ -2713,7 +2724,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>147</v>
       </c>
@@ -2750,10 +2761,10 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>137</v>
       </c>
@@ -2790,7 +2801,7 @@
         <v>51.883292657342665</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>142</v>
       </c>
@@ -2823,7 +2834,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>138</v>
       </c>
@@ -2858,7 +2869,7 @@
         <v>93.733333333333334</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>143</v>
       </c>
@@ -2896,7 +2907,7 @@
         <v>11.716666666666667</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>146</v>
       </c>
@@ -2934,10 +2945,10 @@
         <v>145.616625990676</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>152</v>
       </c>
@@ -2971,7 +2982,7 @@
         <v>53.937041116792606</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>149</v>
       </c>
@@ -3005,7 +3016,7 @@
         <v>1.4649097100371966E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>151</v>
       </c>
@@ -3039,7 +3050,7 @@
         <v>102.2499367796632</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>150</v>
       </c>
@@ -3073,7 +3084,7 @@
         <v>0.15313602880656918</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>153</v>
       </c>
@@ -3107,10 +3118,10 @@
         <v>2.2543886391804477E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>134</v>
       </c>
@@ -3136,7 +3147,7 @@
         <v>7.4406300000000023</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>133</v>
       </c>
@@ -3162,7 +3173,7 @@
         <v>-1.860157500000001</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>135</v>
       </c>
@@ -3192,10 +3203,10 @@
         <v>5.5804725000000008</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>139</v>
       </c>
@@ -3221,7 +3232,7 @@
         <v>774.30444568764574</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>140</v>
       </c>
@@ -3247,7 +3258,7 @@
         <v>145.616625990676</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>141</v>
       </c>
@@ -3273,7 +3284,7 @@
         <v>-140.8260800699301</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>144</v>
       </c>
@@ -3303,10 +3314,10 @@
         <v>779.09499160839164</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3358,7 @@
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>31</v>
       </c>
@@ -3381,7 +3392,7 @@
         <v>546.25874125874122</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>32</v>
       </c>
@@ -3415,7 +3426,7 @@
         <v>936.12104895104903</v>
       </c>
     </row>
-    <row r="65" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>33</v>
       </c>
@@ -3458,7 +3469,7 @@
         <v>1482.3797902097904</v>
       </c>
     </row>
-    <row r="66" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="19" t="s">
         <v>45</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>0.11321470466774275</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>34</v>
       </c>
@@ -3525,7 +3536,7 @@
         <v>152.95244755244755</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>35</v>
       </c>
@@ -3559,7 +3570,7 @@
         <v>93.612104895104906</v>
       </c>
     </row>
-    <row r="69" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>36</v>
       </c>
@@ -3602,7 +3613,7 @@
         <v>246.56455244755244</v>
       </c>
     </row>
-    <row r="70" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="19" t="s">
         <v>46</v>
       </c>
@@ -3645,7 +3656,7 @@
         <v>0.16633021717913327</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>126</v>
       </c>
@@ -3679,7 +3690,7 @@
         <v>844.95648041958043</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>37</v>
       </c>
@@ -3713,7 +3724,7 @@
         <v>140.8260800699301</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>115</v>
       </c>
@@ -3747,7 +3758,7 @@
         <v>-1.860157500000001</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>38</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>23.948029007521935</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>39</v>
       </c>
@@ -3824,7 +3835,7 @@
         <v>227.94480576520561</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
         <v>46</v>
       </c>
@@ -3867,7 +3878,7 @@
         <v>0.15376950446210971</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>184</v>
       </c>
@@ -3901,7 +3912,7 @@
         <v>71.815507156702935</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>40</v>
       </c>
@@ -3930,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>41</v>
       </c>
@@ -3973,7 +3984,7 @@
         <v>156.12929860850267</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>42</v>
       </c>
@@ -4007,7 +4018,7 @@
         <v>32.787152707785559</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="19" t="s">
         <v>48</v>
       </c>
@@ -4050,7 +4061,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="21" t="s">
         <v>43</v>
       </c>
@@ -4093,7 +4104,7 @@
         <v>123.3421459007171</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="19" t="s">
         <v>46</v>
       </c>
@@ -4136,7 +4147,7 @@
         <v>8.3205496132176343E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>49</v>
       </c>
@@ -4173,7 +4184,7 @@
         <v>368.77088583513569</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>50</v>
       </c>
@@ -4202,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>51</v>
       </c>
@@ -4231,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>52</v>
       </c>
@@ -4265,7 +4276,7 @@
         <v>8.099329476485746</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>38</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>23.948029007521935</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>53</v>
       </c>
@@ -4331,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>115</v>
       </c>
@@ -4368,7 +4379,7 @@
         <v>1.860157500000001</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>54</v>
       </c>
@@ -4411,7 +4422,7 @@
         <v>402.6784018191434</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="19" t="s">
         <v>46</v>
       </c>
@@ -4454,7 +4465,7 @@
         <v>0.27164320808917347</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="19"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4471,7 +4482,7 @@
       <c r="O94" s="20"/>
       <c r="P94" s="20"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>179</v>
       </c>
@@ -4508,7 +4519,7 @@
         <v>206.86333418187849</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="19" t="s">
         <v>46</v>
       </c>
@@ -4551,7 +4562,7 @@
         <v>0.13954813439044703</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B97" s="19"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4568,7 +4579,7 @@
       <c r="O97" s="20"/>
       <c r="P97" s="20"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -4612,12 +4623,12 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I99" s="25"/>
       <c r="J99" s="25"/>
       <c r="K99" s="56"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>68</v>
       </c>
@@ -4660,7 +4671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>69</v>
       </c>
@@ -4697,7 +4708,7 @@
         <v>36.435513433718363</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>70</v>
       </c>
@@ -4734,7 +4745,7 @@
         <v>21.715525486412243</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>71</v>
       </c>
@@ -4771,7 +4782,7 @@
         <v>779.09499160839164</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>72</v>
       </c>
@@ -4811,7 +4822,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>73</v>
       </c>
@@ -4854,7 +4865,7 @@
         <v>2767.288009633</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>75</v>
       </c>
@@ -4894,7 +4905,7 @@
         <v>5.5804725000000008</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>74</v>
       </c>
@@ -4931,7 +4942,7 @@
         <v>108.76</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="s">
         <v>83</v>
       </c>
@@ -4974,12 +4985,12 @@
         <v>4771.4435126615226</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
       <c r="K109" s="56"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>77</v>
       </c>
@@ -5016,7 +5027,7 @@
         <v>69.071807944844352</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>78</v>
       </c>
@@ -5053,7 +5064,7 @@
         <v>227.00575425584245</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>79</v>
       </c>
@@ -5090,7 +5101,7 @@
         <v>3.3418601579996468</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>72</v>
       </c>
@@ -5127,7 +5138,7 @@
         <v>1267.7909999999999</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>80</v>
       </c>
@@ -5168,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>76</v>
       </c>
@@ -5205,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>22</v>
       </c>
@@ -5245,7 +5256,7 @@
         <v>338.60464109301972</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>23</v>
       </c>
@@ -5285,7 +5296,7 @@
         <v>496.04200000000026</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>74</v>
       </c>
@@ -5322,12 +5333,12 @@
         <v>63.777000000000001</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I119" s="25"/>
       <c r="J119" s="25"/>
       <c r="K119" s="56"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>81</v>
       </c>
@@ -5370,7 +5381,7 @@
         <v>2093.9191946643618</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="21" t="s">
         <v>84</v>
       </c>
@@ -5413,7 +5424,7 @@
         <v>4559.5532581160678</v>
       </c>
     </row>
-    <row r="123" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>82</v>
       </c>
@@ -5452,7 +5463,7 @@
         <v>211.89025454545481</v>
       </c>
     </row>
-    <row r="124" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F124" s="22"/>
       <c r="G124" s="22"/>
       <c r="I124"/>
@@ -5464,7 +5475,7 @@
       <c r="O124"/>
       <c r="P124"/>
     </row>
-    <row r="125" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>96</v>
       </c>
@@ -5506,7 +5517,7 @@
         <v>-241.26838343855582</v>
       </c>
     </row>
-    <row r="126" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>183</v>
       </c>
@@ -5542,7 +5553,7 @@
         <v>-0.16275746946361894</v>
       </c>
     </row>
-    <row r="127" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>177</v>
       </c>
@@ -5578,7 +5589,7 @@
         <v>1689.7360806698362</v>
       </c>
     </row>
-    <row r="128" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>178</v>
       </c>
@@ -5611,7 +5622,7 @@
         <v>0.12163663589710613</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -5644,7 +5655,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>93</v>
       </c>
@@ -5669,7 +5680,7 @@
         <v>123.3421459007171</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>94</v>
       </c>
@@ -5694,7 +5705,7 @@
         <v>140.8260800699301</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>97</v>
       </c>
@@ -5719,7 +5730,7 @@
         <v>1.860157500000001</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>95</v>
       </c>
@@ -5744,7 +5755,7 @@
         <v>24.79093669113999</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
         <v>148</v>
       </c>
@@ -5778,7 +5789,7 @@
         <v>290.81932016178723</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>98</v>
       </c>
@@ -5803,7 +5814,7 @@
         <v>-51.883292657342665</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>99</v>
       </c>
@@ -5828,7 +5839,7 @@
         <v>-93.733333333333334</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
         <v>100</v>
       </c>
@@ -5840,7 +5851,7 @@
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
+      <c r="K140" s="59"/>
       <c r="L140" s="8">
         <f>L139</f>
         <v>-46.866666666666667</v>
@@ -5862,7 +5873,7 @@
         <v>-93.733333333333334</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>107</v>
       </c>
@@ -5887,7 +5898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>103</v>
       </c>
@@ -5912,7 +5923,7 @@
         <v>197.08598682845388</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>101</v>
       </c>
@@ -5937,7 +5948,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
         <v>102</v>
       </c>
@@ -5971,7 +5982,7 @@
         <v>197.08598682845388</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>105</v>
       </c>
@@ -5996,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>104</v>
       </c>
@@ -6021,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>106</v>
       </c>
@@ -6046,7 +6057,7 @@
         <v>-197.08598682845388</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>121</v>
       </c>
@@ -6071,7 +6082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B150" s="21" t="s">
         <v>108</v>
       </c>
@@ -6108,7 +6119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>175</v>
       </c>
@@ -6133,7 +6144,7 @@
         <v>226.86372495227252</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>176</v>
       </c>
@@ -6158,7 +6169,7 @@
         <v>0.56338687132806475</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -6191,7 +6202,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>117</v>
       </c>
@@ -6212,7 +6223,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>111</v>
       </c>
@@ -6237,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>112</v>
       </c>
@@ -6262,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>154</v>
       </c>
@@ -6291,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>114</v>
       </c>
@@ -6316,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>118</v>
       </c>
@@ -6341,7 +6352,7 @@
         <v>535.69062792147361</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>105</v>
       </c>
@@ -6366,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>106</v>
       </c>
@@ -6391,7 +6402,7 @@
         <v>-197.08598682845388</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>119</v>
       </c>
@@ -6420,7 +6431,7 @@
         <v>338.60464109301972</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>114</v>
       </c>
@@ -6445,7 +6456,7 @@
         <v>27.321727156702917</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>120</v>
       </c>
@@ -6470,7 +6481,7 @@
         <v>496.04200000000026</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>106</v>
       </c>
@@ -6495,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>122</v>
       </c>
@@ -6524,7 +6535,7 @@
         <v>496.04200000000026</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>114</v>
       </c>
@@ -6549,7 +6560,7 @@
         <v>44.643780000000021</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>155</v>
       </c>
@@ -6574,7 +6585,7 @@
         <v>71.965507156702941</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>156</v>
       </c>
@@ -6599,7 +6610,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>157</v>
       </c>
@@ -6624,7 +6635,7 @@
         <v>71.815507156702935</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>158</v>
       </c>
@@ -6649,7 +6660,7 @@
         <v>834.64664109301998</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>159</v>
       </c>
@@ -6674,7 +6685,7 @@
         <v>819.64664109301998</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>161</v>
       </c>
@@ -6699,7 +6710,7 @@
         <v>2.0354869727062024</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>162</v>
       </c>
@@ -6724,7 +6735,7 @@
         <v>3.188520107477804</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>160</v>
       </c>
@@ -6749,7 +6760,7 @@
         <v>5.6071232768779415</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -6779,7 +6790,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
         <v>173</v>
       </c>
@@ -6807,7 +6818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>180</v>
       </c>
@@ -6835,7 +6846,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>164</v>
       </c>
@@ -6860,7 +6871,7 @@
         <v>7328.7469131084099</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>165</v>
       </c>
@@ -6885,7 +6896,7 @@
         <v>-819.64664109301998</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>166</v>
       </c>
@@ -6910,7 +6921,7 @@
         <v>-1267.7909999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
         <v>167</v>
       </c>
@@ -6944,7 +6955,7 @@
         <v>5241.30927201539</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>168</v>
       </c>
@@ -6969,7 +6980,7 @@
         <v>-524.13092720153907</v>
       </c>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B194" s="21" t="s">
         <v>169</v>
       </c>
@@ -7003,7 +7014,7 @@
         <v>4717.1783448138513</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196" s="32" t="s">
         <v>170</v>
       </c>
@@ -7037,7 +7048,7 @@
         <v>2.7780069036201769</v>
       </c>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197" s="36" t="s">
         <v>171</v>
       </c>
@@ -7071,7 +7082,7 @@
         <v>0.2267234410258907</v>
       </c>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B198" s="40" t="s">
         <v>172</v>
       </c>
@@ -7105,7 +7116,7 @@
         <v>3019.1342043667446</v>
       </c>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J201" s="46" t="s">
         <v>11</v>
       </c>
@@ -7114,7 +7125,7 @@
       <c r="M201" s="45"/>
       <c r="N201" s="45"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I202" s="47">
         <f ca="1">P197</f>
         <v>0.2267234410258907</v>
@@ -7140,7 +7151,7 @@
       </c>
       <c r="O202" s="26"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I203" s="49">
         <f>I204-1</f>
         <v>16.2</v>
@@ -7162,7 +7173,7 @@
         <v>0.16190139184069041</v>
       </c>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I204" s="49">
         <f>I205-1</f>
         <v>17.2</v>
@@ -7183,7 +7194,7 @@
         <v>0.18226924860982852</v>
       </c>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H205" s="23" t="s">
         <v>180</v>
       </c>
@@ -7206,7 +7217,7 @@
         <v>0.20132316742463519</v>
       </c>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I206" s="49">
         <f>I205+1</f>
         <v>19.2</v>
@@ -7227,7 +7238,7 @@
         <v>0.21923973105209993</v>
       </c>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I207" s="49">
         <f>I206+1</f>
         <v>20.2</v>
@@ -7248,7 +7259,7 @@
         <v>0.23616115503720625</v>
       </c>
     </row>
-    <row r="209" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="209" spans="8:14" x14ac:dyDescent="0.25">
       <c r="J209" s="46" t="s">
         <v>181</v>
       </c>
@@ -7257,7 +7268,7 @@
       <c r="M209" s="45"/>
       <c r="N209" s="45"/>
     </row>
-    <row r="210" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="210" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I210" s="47">
         <f ca="1">P197</f>
         <v>0.2267234410258907</v>
@@ -7282,7 +7293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="211" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I211" s="50">
         <f>I212-0.5</f>
         <v>-1</v>
@@ -7304,7 +7315,7 @@
         <v>0.15076474598475142</v>
       </c>
     </row>
-    <row r="212" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="212" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I212" s="50">
         <f>I213-0.5</f>
         <v>-0.5</v>
@@ -7325,7 +7336,7 @@
         <v>0.20593718116054149</v>
       </c>
     </row>
-    <row r="213" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="213" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H213" s="23" t="s">
         <v>182</v>
       </c>
@@ -7348,7 +7359,7 @@
         <v>0.25255341208197235</v>
       </c>
     </row>
-    <row r="214" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="214" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I214" s="50">
         <f>I213+0.5</f>
         <v>0.5</v>
@@ -7369,7 +7380,7 @@
         <v>0.29311331543670649</v>
       </c>
     </row>
-    <row r="215" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="215" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I215" s="50">
         <f>I214+0.5</f>
         <v>1</v>
@@ -7393,9 +7404,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="1048575" man="1"/>
-  </colBreaks>
   <ignoredErrors>
     <ignoredError sqref="L42" formula="1"/>
   </ignoredErrors>
